--- a/output/fit_clients/fit_round_226.xlsx
+++ b/output/fit_clients/fit_round_226.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2404599084.720561</v>
+        <v>2040994323.478347</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08294519030385235</v>
+        <v>0.09741952241800088</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04103180421926254</v>
+        <v>0.03320376347287771</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1202299592.372507</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1841246418.598717</v>
+        <v>1927651942.734474</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1845206502083573</v>
+        <v>0.1685667112706698</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04437390451276046</v>
+        <v>0.03598434407644942</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>920623224.756446</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4273531163.80644</v>
+        <v>3593501950.638435</v>
       </c>
       <c r="F4" t="n">
-        <v>0.136150590210868</v>
+        <v>0.1537699119296015</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03701589724392092</v>
+        <v>0.03230284368089723</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>81</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2136765615.442866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3684705678.397056</v>
+        <v>4026238907.835586</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07667311832757209</v>
+        <v>0.1109401473210191</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04153311052004012</v>
+        <v>0.05058899984254184</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1842352863.759394</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1780119349.914858</v>
+        <v>2640921068.765893</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1159279434564664</v>
+        <v>0.1309826809825624</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05002892991244617</v>
+        <v>0.04304651172481019</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>890059728.3335078</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2980916362.695258</v>
+        <v>2130821749.706178</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0721398861345242</v>
+        <v>0.09043732011649826</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04664191369504147</v>
+        <v>0.03769526936629809</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>69</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1490458148.113994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3570743165.758974</v>
+        <v>2581763795.440021</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2017733783487921</v>
+        <v>0.2178226810480932</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02455670894383362</v>
+        <v>0.02387068482712816</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>72</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1785371698.726825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1712781256.624632</v>
+        <v>1590084867.152371</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1653871043221005</v>
+        <v>0.1278031329297489</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02397638687941728</v>
+        <v>0.02734856101056116</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>856390694.7594374</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4390468688.579172</v>
+        <v>5665624406.179487</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1743922320392262</v>
+        <v>0.1526563455598309</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04162224370794568</v>
+        <v>0.04638541846284952</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>95</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2195234396.397303</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3598277330.704233</v>
+        <v>3148366912.26592</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1386527375620133</v>
+        <v>0.1478560936867022</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04956064247894695</v>
+        <v>0.04851709837794577</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>93</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1799138650.006786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3198292262.295634</v>
+        <v>2429894470.652822</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1576032674136048</v>
+        <v>0.1835023039688892</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04608518185883432</v>
+        <v>0.04792938096156363</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>78</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1599146167.319822</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4826324275.361697</v>
+        <v>3604262857.373127</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08544919098087667</v>
+        <v>0.08364953691360523</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02380922401148441</v>
+        <v>0.01956889566535241</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>76</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2413162150.631166</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2519819097.579341</v>
+        <v>3386744280.556968</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1266415273178469</v>
+        <v>0.1688539393564417</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0361141909820684</v>
+        <v>0.03593733651247297</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>73</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1259909617.98392</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1391349222.3801</v>
+        <v>1603974607.945767</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09461384530350796</v>
+        <v>0.08577461026430268</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03323958755636401</v>
+        <v>0.03397090700302603</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>695674672.0421429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2768920142.985296</v>
+        <v>2090816675.634739</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07985608941814118</v>
+        <v>0.1140769998424407</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04933684780451707</v>
+        <v>0.03813733906907064</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>39</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1384460078.269784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3618870118.866657</v>
+        <v>3537210103.40325</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1642586549625218</v>
+        <v>0.1261479976389312</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0400617162568555</v>
+        <v>0.03263262472542191</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>66</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1809435112.811601</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3322118688.349956</v>
+        <v>3998710037.06328</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1412344322357498</v>
+        <v>0.1119357085738166</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03345260242213235</v>
+        <v>0.03081414887044428</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>74</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1661059351.101345</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>895747985.7600433</v>
+        <v>841742085.6249886</v>
       </c>
       <c r="F19" t="n">
-        <v>0.118852777457136</v>
+        <v>0.1254813656180324</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02049600267475547</v>
+        <v>0.02289538861099535</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>447873996.7190829</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2533992154.591201</v>
+        <v>1974150850.884768</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1302267418739035</v>
+        <v>0.157406365353849</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02400185358486168</v>
+        <v>0.02208441625630122</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1266996046.736042</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2443020209.942162</v>
+        <v>2383253967.520917</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07522778698752701</v>
+        <v>0.0622970761589455</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03354494093691797</v>
+        <v>0.03691972597702248</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1221510098.534283</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2715516440.990272</v>
+        <v>3028947394.602241</v>
       </c>
       <c r="F22" t="n">
-        <v>0.114001384975902</v>
+        <v>0.1443303298925412</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03998561023311759</v>
+        <v>0.0442242810913507</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>62</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1357758299.051382</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>970149134.5680436</v>
+        <v>1074268172.161104</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1566260320738483</v>
+        <v>0.1154308359681658</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03504184895276587</v>
+        <v>0.0432599543240542</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>485074642.4772337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3803151665.272731</v>
+        <v>4052388098.19848</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1288253918755262</v>
+        <v>0.1029274003930398</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03385605783251218</v>
+        <v>0.02331414391235799</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>67</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1901575813.830638</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>955498587.0837971</v>
+        <v>1024830561.826862</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09446521927912474</v>
+        <v>0.1185226296041009</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02186689674444704</v>
+        <v>0.02940886186050058</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>477749367.7470745</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1175382068.735883</v>
+        <v>1286382016.73173</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08887295145929593</v>
+        <v>0.09325167095177352</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03230147474174393</v>
+        <v>0.03782825218534954</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>587691049.3694366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4585906496.617442</v>
+        <v>3814888607.743155</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1097905630303261</v>
+        <v>0.1229769454448468</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01670573238532343</v>
+        <v>0.01713276427807961</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2292953229.329564</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3248721579.784838</v>
+        <v>3592953842.575369</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1135475352507769</v>
+        <v>0.1298697575007264</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03783850876697416</v>
+        <v>0.05037030178971511</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>74</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1624360822.685763</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5830465218.227979</v>
+        <v>5645476920.146688</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1220638226600471</v>
+        <v>0.103173018793241</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03087647078543381</v>
+        <v>0.0331248662081508</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>100</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2915232499.10064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2212491064.336823</v>
+        <v>2366203708.960182</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09502912170744042</v>
+        <v>0.099404900119337</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03986122623047089</v>
+        <v>0.02875476452428574</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1106245593.847579</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1009397676.390502</v>
+        <v>1257557968.732098</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0900987571229698</v>
+        <v>0.06759887753388821</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05059442282574576</v>
+        <v>0.04823537858580183</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>504698834.5123174</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1862319782.112191</v>
+        <v>1460918913.03508</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08719766299832485</v>
+        <v>0.09458181107160578</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02583865408817815</v>
+        <v>0.03524023118734394</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>931160034.4536208</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3113410403.323303</v>
+        <v>2355851194.730052</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1317370667854328</v>
+        <v>0.1643515235209634</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05386106867565568</v>
+        <v>0.04024911442139913</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>65</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1556705187.600295</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1530674773.290505</v>
+        <v>1540201145.919641</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09978517330405103</v>
+        <v>0.1137278906693135</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02189412514935856</v>
+        <v>0.02197541319919433</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>765337337.497859</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1087554745.308727</v>
+        <v>879437794.7165434</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1108069216779316</v>
+        <v>0.09847774022401698</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04452254288544092</v>
+        <v>0.03599792017129508</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>543777372.0338261</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2716943651.067502</v>
+        <v>2985937902.375343</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1467993478860334</v>
+        <v>0.117758152455859</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01890595419121091</v>
+        <v>0.02728057956460676</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>57</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1358471830.132427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2938432083.376135</v>
+        <v>1999809717.710506</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08537464974100323</v>
+        <v>0.08644132350394576</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03667042636152312</v>
+        <v>0.03307209513910296</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>59</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1469216198.036147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1802862366.263927</v>
+        <v>1853609683.443841</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1148656857746386</v>
+        <v>0.09176494172053015</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02477331794438051</v>
+        <v>0.03684253740781093</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>901431189.5926539</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1411117471.866823</v>
+        <v>1777673823.908209</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1731076208598211</v>
+        <v>0.1381616312907537</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02279679545783932</v>
+        <v>0.02602137047260012</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>705558819.836198</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1695615171.141694</v>
+        <v>1449002777.9866</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1356353301574002</v>
+        <v>0.1032166236036936</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04425265952218879</v>
+        <v>0.04364861161517371</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>847807502.7928859</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2825158375.392583</v>
+        <v>2156077062.695271</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1644157394345636</v>
+        <v>0.147600360402647</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04608986465784953</v>
+        <v>0.0425263364695288</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>53</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1412579181.168283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4341015566.393229</v>
+        <v>3766967809.112363</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1093229086242374</v>
+        <v>0.1002286349223858</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03252507290175322</v>
+        <v>0.03245943071538272</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2170507835.922493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2799301831.587895</v>
+        <v>2107452169.60029</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1342643334143402</v>
+        <v>0.1717450357680992</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01642509937083272</v>
+        <v>0.02183602576292015</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>77</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1399650934.354361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1614241036.373842</v>
+        <v>2249305228.116509</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07360755260716006</v>
+        <v>0.09565085656957294</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03033965081062883</v>
+        <v>0.03263188773978007</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>807120547.5415862</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2475926131.343709</v>
+        <v>2092933982.89756</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1686920090986578</v>
+        <v>0.1834798760673901</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05020795038509231</v>
+        <v>0.04629255658366004</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1237963104.491585</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3931229515.406314</v>
+        <v>5175902068.841857</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1567395925479769</v>
+        <v>0.1532591296153036</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05467216353338122</v>
+        <v>0.03801418921120637</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>80</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1965614723.296559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4196856023.522938</v>
+        <v>3744106496.911218</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1269880621015516</v>
+        <v>0.1353283511863817</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05509004498460381</v>
+        <v>0.04234041904739932</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>60</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2098428022.02753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4411758963.770859</v>
+        <v>2942359458.335682</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09025910882977631</v>
+        <v>0.08226852151964939</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0267309984606518</v>
+        <v>0.02997160925805796</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2205879492.297688</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1509725950.865552</v>
+        <v>1744890829.096761</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1303013823939</v>
+        <v>0.1410054411234429</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03012913728843911</v>
+        <v>0.03314694707127906</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>754863005.9398398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2821897455.176068</v>
+        <v>3858395794.073916</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1762462232883508</v>
+        <v>0.1291018429308832</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04693682505782568</v>
+        <v>0.05280281241252563</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>77</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1410948800.093025</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1229706615.236953</v>
+        <v>1286540575.998841</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1496543044536809</v>
+        <v>0.1669764196319972</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05409354500455232</v>
+        <v>0.05025211500478231</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>614853354.3420336</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3688312238.634002</v>
+        <v>4464480325.032107</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09579647313033184</v>
+        <v>0.09592356611767394</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05406002370281368</v>
+        <v>0.05797839255992698</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>93</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1844156194.127387</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2711938089.40972</v>
+        <v>3086869060.79145</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1244390680980858</v>
+        <v>0.183149656236468</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02940920052734344</v>
+        <v>0.03092423826004182</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>65</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1355969096.977267</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3988450257.939541</v>
+        <v>3837157427.163806</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1245817440569408</v>
+        <v>0.1388285580805969</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04132988892457878</v>
+        <v>0.04886443194981797</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>75</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1994225192.130245</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3066785044.359811</v>
+        <v>3030195496.470509</v>
       </c>
       <c r="F55" t="n">
-        <v>0.137234131264668</v>
+        <v>0.1483931250861034</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02693885095939115</v>
+        <v>0.02440216131513007</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1533392455.889696</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1710099301.826469</v>
+        <v>1377955762.503455</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1648026869482161</v>
+        <v>0.1129186119321505</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05722624929803206</v>
+        <v>0.05668441363911108</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>855049662.0258502</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3468273996.885245</v>
+        <v>3175883462.782506</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1262849711640971</v>
+        <v>0.1823952590303971</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0230174778325816</v>
+        <v>0.02607098671102877</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>72</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1734137042.153486</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1805721611.90076</v>
+        <v>1845712528.398778</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1715268890658876</v>
+        <v>0.1634255448046511</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03290104376245127</v>
+        <v>0.03571167196094147</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>902860809.1672794</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5391190167.646884</v>
+        <v>3543373592.184555</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1037648122900061</v>
+        <v>0.0811502504587423</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04529839252731894</v>
+        <v>0.04987180853858715</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2695594992.636769</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2309668534.631283</v>
+        <v>3732070119.461363</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2019084636190908</v>
+        <v>0.1870248931533035</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02485022411669193</v>
+        <v>0.03300784873857331</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1154834265.240285</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2541403244.014699</v>
+        <v>2806921472.572323</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1344679450347952</v>
+        <v>0.1544164306515843</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02962821799505568</v>
+        <v>0.02963879476350839</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>80</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1270701645.710437</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1706377112.155215</v>
+        <v>1650928022.776413</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1457729745811226</v>
+        <v>0.1575274280398728</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04541556261673178</v>
+        <v>0.03798740513629709</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>853188570.1050417</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4163240154.077956</v>
+        <v>5143741743.699114</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06656752729941313</v>
+        <v>0.08113621931638181</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04546477754602718</v>
+        <v>0.03052130167220548</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>65</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2081620132.11492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4922890784.160837</v>
+        <v>4628548804.351031</v>
       </c>
       <c r="F64" t="n">
-        <v>0.154418761468738</v>
+        <v>0.1547110940268257</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03471042108538239</v>
+        <v>0.02838899271895998</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>70</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2461445492.842539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4325971452.185853</v>
+        <v>4116052358.225342</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1661367303813318</v>
+        <v>0.1725671739964216</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02978771558603218</v>
+        <v>0.03118304350876926</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>81</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2162985725.217679</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4715785880.486603</v>
+        <v>4110879679.359559</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1262008189624962</v>
+        <v>0.1625413034547904</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04017251914274498</v>
+        <v>0.03257244631831029</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>66</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2357892952.136799</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2121605079.552608</v>
+        <v>3150186605.585741</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1013524680497006</v>
+        <v>0.09372396151907697</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03476368000884347</v>
+        <v>0.04762918680322663</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>72</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1060802632.355939</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5539193604.71892</v>
+        <v>3989580555.78387</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1043976064360795</v>
+        <v>0.1177881090169113</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04577810365253837</v>
+        <v>0.05176841142611831</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>72</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2769596891.410285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1738897994.554287</v>
+        <v>1749198796.409671</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1410278491570907</v>
+        <v>0.1619175274885476</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05364392132027784</v>
+        <v>0.05555580527813518</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>869448968.4360175</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2337234689.029475</v>
+        <v>2503159660.719164</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08042642761746548</v>
+        <v>0.1005662979871785</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0464280524215198</v>
+        <v>0.04122800088690349</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>64</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1168617278.335033</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5517482863.213541</v>
+        <v>5055117871.020258</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1473804962909273</v>
+        <v>0.1523594245156135</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02613209082077438</v>
+        <v>0.03329149373829317</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>83</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2758741575.936512</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1763123087.84603</v>
+        <v>1752136371.873988</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07148585789080183</v>
+        <v>0.09133565501928624</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03624054375459559</v>
+        <v>0.03382076217651932</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>881561528.4565678</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3045519249.067836</v>
+        <v>2855400190.201045</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08149837201981978</v>
+        <v>0.1096525895355063</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04337888680425009</v>
+        <v>0.04315307494280014</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>88</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1522759616.344009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3910933617.877855</v>
+        <v>3102064689.743506</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1648574567256461</v>
+        <v>0.1268594984799274</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02800331603796342</v>
+        <v>0.02595457945462269</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>77</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1955466795.584338</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1907780341.180969</v>
+        <v>2253731434.832942</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1235870461278749</v>
+        <v>0.1479042858479768</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03584741461903451</v>
+        <v>0.02980649087535125</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>953890143.3774066</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5074733653.196851</v>
+        <v>3435665299.096471</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1224751820102143</v>
+        <v>0.08220841329908814</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03044740082083748</v>
+        <v>0.02469300165324533</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2537366856.392099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1436435945.356869</v>
+        <v>2046236871.841047</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1745142629988361</v>
+        <v>0.173837075173456</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02164109706495884</v>
+        <v>0.0316441427099738</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>718217950.9400682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4308624557.22966</v>
+        <v>3347724173.871864</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09964973954546066</v>
+        <v>0.09057174222872176</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05289362335282695</v>
+        <v>0.05491454541570071</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>78</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2154312222.218549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1386300101.359033</v>
+        <v>1870633669.349389</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1373940614496963</v>
+        <v>0.1622341818259315</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0292670065263492</v>
+        <v>0.02860483366784692</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>693150065.000206</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3722983491.779052</v>
+        <v>5527433079.785992</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09294264148856514</v>
+        <v>0.08996167710648879</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03090896261541562</v>
+        <v>0.03696868935468443</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>47</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1861491731.581236</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3466043913.768916</v>
+        <v>3886690350.889716</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08727417715149069</v>
+        <v>0.1232992476887851</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03265390184942301</v>
+        <v>0.03286646923091625</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>50</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1733021900.253505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4906077899.060269</v>
+        <v>5462174947.475787</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1764268539686766</v>
+        <v>0.1353141715669844</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02476057629439322</v>
+        <v>0.02902794927313669</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>81</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2453038938.715866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1555700929.171284</v>
+        <v>1785127717.338454</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1279771668225638</v>
+        <v>0.111348515432078</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0436827012730515</v>
+        <v>0.04395840373746521</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>777850394.6036383</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2034582475.794412</v>
+        <v>2331163103.08418</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09007319239823892</v>
+        <v>0.09488253253968293</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04825126994465664</v>
+        <v>0.04915425993694274</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1017291237.804252</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2568523867.932655</v>
+        <v>2972442622.999046</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1491800901030395</v>
+        <v>0.1352442276340959</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04069357744306881</v>
+        <v>0.05558439519649746</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>85</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1284261946.469088</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1777477769.901293</v>
+        <v>1842806109.42722</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1193398149383884</v>
+        <v>0.1348943896482578</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01767165874622424</v>
+        <v>0.01775395238120261</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29</v>
-      </c>
-      <c r="J86" t="n">
-        <v>888738881.5963527</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>995993317.3177984</v>
+        <v>1387439446.030338</v>
       </c>
       <c r="F87" t="n">
-        <v>0.139202689048591</v>
+        <v>0.1153168584874492</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03951280844811818</v>
+        <v>0.03519421403194718</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>497996661.9365376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2607563917.250962</v>
+        <v>3219119249.516555</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1320280158919803</v>
+        <v>0.1388293157144264</v>
       </c>
       <c r="G88" t="n">
-        <v>0.036500457795066</v>
+        <v>0.02533555508059075</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>89</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1303781950.270016</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2365410895.029144</v>
+        <v>3073419119.687393</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1323414031343459</v>
+        <v>0.1007541008926114</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03385451019156166</v>
+        <v>0.03590891044180362</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>77</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1182705532.120551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1561328613.283449</v>
+        <v>2093665463.163913</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09498317060720611</v>
+        <v>0.128432955163168</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03677322395223834</v>
+        <v>0.05230630643876916</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>780664296.5812839</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1945062206.887005</v>
+        <v>1912507523.251845</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1774380623856287</v>
+        <v>0.1522732688842568</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04517669211886135</v>
+        <v>0.03917146517851797</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>972531083.0071801</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2280337940.885526</v>
+        <v>1856104558.552467</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07599322137923251</v>
+        <v>0.1012588643427549</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03545311527829616</v>
+        <v>0.03150095064830627</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>58</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1140168937.827695</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3233079837.684589</v>
+        <v>4480180485.174764</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1096376984194932</v>
+        <v>0.127194193419255</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04276074826021745</v>
+        <v>0.03438675979576118</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1616539969.035017</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2498732155.634532</v>
+        <v>1908044560.904001</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1017394024445866</v>
+        <v>0.155415848795878</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0318328070260979</v>
+        <v>0.04137569264644291</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1249366141.048589</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2341344324.0465</v>
+        <v>2890597967.955445</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1285474802994594</v>
+        <v>0.09272974288858278</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03889679526062397</v>
+        <v>0.04440377710143194</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>55</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1170672209.646276</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1614104292.323562</v>
+        <v>2403952570.680039</v>
       </c>
       <c r="F96" t="n">
-        <v>0.141398722556817</v>
+        <v>0.0854800028417167</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04143621923353091</v>
+        <v>0.04709198100894511</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>807052174.319852</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4407973812.554152</v>
+        <v>3894140822.456603</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1305435680214793</v>
+        <v>0.1568915996206536</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01774455245948223</v>
+        <v>0.02919951174862401</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>73</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2203986995.446854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3680674718.535346</v>
+        <v>3689141091.142413</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08655124400524528</v>
+        <v>0.1037187395606683</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0311835460387671</v>
+        <v>0.02458399583549323</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>61</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1840337390.139984</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2804346640.825394</v>
+        <v>2340491489.151487</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1386441951939503</v>
+        <v>0.1354039196456651</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03201847553193754</v>
+        <v>0.02753446291459255</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>71</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1402173292.152143</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3781232468.828998</v>
+        <v>4025860977.644039</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1212829118975776</v>
+        <v>0.1345937109193196</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02083396132018777</v>
+        <v>0.02146391029220089</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>71</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1890616287.618239</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3123481743.873381</v>
+        <v>3554444459.55093</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2004111119785909</v>
+        <v>0.168489520182046</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04303851688357092</v>
+        <v>0.05302094772342827</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>93</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1561740977.304664</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_226.xlsx
+++ b/output/fit_clients/fit_round_226.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2040994323.478347</v>
+        <v>1948702101.495351</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09741952241800088</v>
+        <v>0.1145307843481071</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03320376347287771</v>
+        <v>0.03170440999622827</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1927651942.734474</v>
+        <v>2614922892.56433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1685667112706698</v>
+        <v>0.1306572641805251</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03598434407644942</v>
+        <v>0.03441238592948521</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3593501950.638435</v>
+        <v>4900792728.638383</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1537699119296015</v>
+        <v>0.1613802795355135</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03230284368089723</v>
+        <v>0.02781873239741998</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4026238907.835586</v>
+        <v>3936780233.921851</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1109401473210191</v>
+        <v>0.09174389114622485</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05058899984254184</v>
+        <v>0.0473664390095743</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2640921068.765893</v>
+        <v>1751623022.804467</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1309826809825624</v>
+        <v>0.09564988288977264</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04304651172481019</v>
+        <v>0.04125191537494585</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2130821749.706178</v>
+        <v>1978284998.535368</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09043732011649826</v>
+        <v>0.07550812870444835</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03769526936629809</v>
+        <v>0.04001426714090076</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2581763795.440021</v>
+        <v>3814834632.507395</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2178226810480932</v>
+        <v>0.1450122330422068</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02387068482712816</v>
+        <v>0.02694623449536388</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1590084867.152371</v>
+        <v>1575432796.047128</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1278031329297489</v>
+        <v>0.156074243838137</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02734856101056116</v>
+        <v>0.03428916560145241</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5665624406.179487</v>
+        <v>4358727923.996408</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1526563455598309</v>
+        <v>0.1373486580682034</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04638541846284952</v>
+        <v>0.03865684942066878</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3148366912.26592</v>
+        <v>3983188236.412847</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1478560936867022</v>
+        <v>0.1307580478863396</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04851709837794577</v>
+        <v>0.04922456336439779</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2429894470.652822</v>
+        <v>3044447998.781556</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1835023039688892</v>
+        <v>0.1694843229479749</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04792938096156363</v>
+        <v>0.05146922913900488</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3604262857.373127</v>
+        <v>3615952781.009377</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08364953691360523</v>
+        <v>0.09341263425379893</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01956889566535241</v>
+        <v>0.0269327365871712</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3386744280.556968</v>
+        <v>3547445447.306395</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1688539393564417</v>
+        <v>0.1691650769388323</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03593733651247297</v>
+        <v>0.02849062075501217</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1603974607.945767</v>
+        <v>1137869302.736772</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08577461026430268</v>
+        <v>0.07786240382761352</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03397090700302603</v>
+        <v>0.04230170998838875</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2090816675.634739</v>
+        <v>1891621581.881105</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1140769998424407</v>
+        <v>0.111918556332962</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03813733906907064</v>
+        <v>0.04283292265307514</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3537210103.40325</v>
+        <v>4943832180.257679</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1261479976389312</v>
+        <v>0.1184112674493109</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03263262472542191</v>
+        <v>0.05050544676029968</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3998710037.06328</v>
+        <v>2504171867.3816</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1119357085738166</v>
+        <v>0.1523144099606446</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03081414887044428</v>
+        <v>0.02622671364902</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>841742085.6249886</v>
+        <v>1050700202.751524</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1254813656180324</v>
+        <v>0.1825323422862002</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02289538861099535</v>
+        <v>0.02239799849935575</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1974150850.884768</v>
+        <v>1880044635.585245</v>
       </c>
       <c r="F20" t="n">
-        <v>0.157406365353849</v>
+        <v>0.1604301393730275</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02208441625630122</v>
+        <v>0.02015596592599081</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2383253967.520917</v>
+        <v>2472428609.803415</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0622970761589455</v>
+        <v>0.1021685367367321</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03691972597702248</v>
+        <v>0.04118268886604507</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3028947394.602241</v>
+        <v>3117914033.698759</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1443303298925412</v>
+        <v>0.1153617549139027</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0442242810913507</v>
+        <v>0.04346700390582288</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,16 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1074268172.161104</v>
+        <v>1232145850.238219</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1154308359681658</v>
+        <v>0.1646776385955127</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0432599543240542</v>
+        <v>0.04015386936674579</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4052388098.19848</v>
+        <v>3435961090.415608</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1029274003930398</v>
+        <v>0.1121525366177887</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02331414391235799</v>
+        <v>0.02435083225683829</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1024830561.826862</v>
+        <v>1226874433.294091</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1185226296041009</v>
+        <v>0.09676757841494392</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02940886186050058</v>
+        <v>0.02333983923913421</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1286382016.73173</v>
+        <v>1067685013.852005</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09325167095177352</v>
+        <v>0.08807135870118835</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03782825218534954</v>
+        <v>0.03538204763049397</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3814888607.743155</v>
+        <v>3313489732.627483</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1229769454448468</v>
+        <v>0.127608962483315</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01713276427807961</v>
+        <v>0.02137916368341162</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3592953842.575369</v>
+        <v>2807288914.763071</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1298697575007264</v>
+        <v>0.1105204957511156</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05037030178971511</v>
+        <v>0.03931693238153874</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5645476920.146688</v>
+        <v>5618939660.415246</v>
       </c>
       <c r="F29" t="n">
-        <v>0.103173018793241</v>
+        <v>0.09790370374489459</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0331248662081508</v>
+        <v>0.04182365543522535</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2366203708.960182</v>
+        <v>1599122835.927229</v>
       </c>
       <c r="F30" t="n">
-        <v>0.099404900119337</v>
+        <v>0.08526540115782684</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02875476452428574</v>
+        <v>0.03151425420778566</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1257557968.732098</v>
+        <v>1319741660.369417</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06759887753388821</v>
+        <v>0.07261876398771588</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04823537858580183</v>
+        <v>0.03276057292859735</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1460918913.03508</v>
+        <v>1306599689.097945</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09458181107160578</v>
+        <v>0.07936747724211531</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03524023118734394</v>
+        <v>0.02560949580291755</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2355851194.730052</v>
+        <v>2419928791.095171</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1643515235209634</v>
+        <v>0.1316094560155726</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04024911442139913</v>
+        <v>0.05644110812387653</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1540201145.919641</v>
+        <v>1094312899.355374</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1137278906693135</v>
+        <v>0.09088139150951137</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02197541319919433</v>
+        <v>0.02522347557596243</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>879437794.7165434</v>
+        <v>1349617387.547624</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09847774022401698</v>
+        <v>0.09846355436411436</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03599792017129508</v>
+        <v>0.03578034720337966</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2985937902.375343</v>
+        <v>2931043441.174716</v>
       </c>
       <c r="F36" t="n">
-        <v>0.117758152455859</v>
+        <v>0.1155614946867582</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02728057956460676</v>
+        <v>0.02649057611489188</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1999809717.710506</v>
+        <v>2915572801.548169</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08644132350394576</v>
+        <v>0.07954329491666588</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03307209513910296</v>
+        <v>0.04184198906263539</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1853609683.443841</v>
+        <v>1597559563.40704</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09176494172053015</v>
+        <v>0.1145614714117438</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03684253740781093</v>
+        <v>0.03471925475944138</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1777673823.908209</v>
+        <v>2139597770.190024</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1381616312907537</v>
+        <v>0.1581461287550877</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02602137047260012</v>
+        <v>0.02141149995625491</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1449002777.9866</v>
+        <v>1770747075.887563</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1032166236036936</v>
+        <v>0.1396339959060475</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04364861161517371</v>
+        <v>0.06008640808570471</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2156077062.695271</v>
+        <v>1880777469.882924</v>
       </c>
       <c r="F41" t="n">
-        <v>0.147600360402647</v>
+        <v>0.146520771310292</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0425263364695288</v>
+        <v>0.02969997189097122</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3766967809.112363</v>
+        <v>3518521163.505578</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1002286349223858</v>
+        <v>0.1156477978947386</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03245943071538272</v>
+        <v>0.03108346730483183</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2107452169.60029</v>
+        <v>2971605802.701227</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1717450357680992</v>
+        <v>0.187645684931203</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02183602576292015</v>
+        <v>0.02568516545479108</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2249305228.116509</v>
+        <v>1922547088.697585</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09565085656957294</v>
+        <v>0.07042245732263454</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03263188773978007</v>
+        <v>0.029784285862128</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2092933982.89756</v>
+        <v>2478336260.425661</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1834798760673901</v>
+        <v>0.1845610715863038</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04629255658366004</v>
+        <v>0.04402127316782058</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5175902068.841857</v>
+        <v>3960375927.389919</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1532591296153036</v>
+        <v>0.1285638895421316</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03801418921120637</v>
+        <v>0.04859029857161058</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3744106496.911218</v>
+        <v>3330901317.167506</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1353283511863817</v>
+        <v>0.1602937644734139</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04234041904739932</v>
+        <v>0.04221973526565251</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2942359458.335682</v>
+        <v>4343654116.247374</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08226852151964939</v>
+        <v>0.07448799216598259</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02997160925805796</v>
+        <v>0.02985710673190335</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1744890829.096761</v>
+        <v>1463183153.822253</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1410054411234429</v>
+        <v>0.1828381813229777</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03314694707127906</v>
+        <v>0.04255219921710036</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3858395794.073916</v>
+        <v>2916821650.782361</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1291018429308832</v>
+        <v>0.1747458727726849</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05280281241252563</v>
+        <v>0.04886753113604166</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1286540575.998841</v>
+        <v>1122663254.329253</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1669764196319972</v>
+        <v>0.1924398032379206</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05025211500478231</v>
+        <v>0.03973612724849241</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4464480325.032107</v>
+        <v>3610401540.113482</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09592356611767394</v>
+        <v>0.08619891898559491</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05797839255992698</v>
+        <v>0.04026302403437743</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3086869060.79145</v>
+        <v>2353992091.746948</v>
       </c>
       <c r="F53" t="n">
-        <v>0.183149656236468</v>
+        <v>0.186117727036564</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03092423826004182</v>
+        <v>0.02977570945310085</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3837157427.163806</v>
+        <v>3755613381.892688</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1388285580805969</v>
+        <v>0.1147271738113546</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04886443194981797</v>
+        <v>0.05104710716370781</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3030195496.470509</v>
+        <v>4175208492.84907</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1483931250861034</v>
+        <v>0.1927618193725842</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02440216131513007</v>
+        <v>0.0239751092659517</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1377955762.503455</v>
+        <v>1222966630.293648</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1129186119321505</v>
+        <v>0.1448393650883639</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05668441363911108</v>
+        <v>0.04421993850860172</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3175883462.782506</v>
+        <v>3569357267.76845</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1823952590303971</v>
+        <v>0.1137465154095894</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02607098671102877</v>
+        <v>0.02662842394257726</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1845712528.398778</v>
+        <v>1233722560.254572</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1634255448046511</v>
+        <v>0.2030117704984895</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03571167196094147</v>
+        <v>0.03225572253823724</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3543373592.184555</v>
+        <v>4834112840.201051</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0811502504587423</v>
+        <v>0.09070868470767054</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04987180853858715</v>
+        <v>0.04090176354631622</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3732070119.461363</v>
+        <v>3490233194.659396</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1870248931533035</v>
+        <v>0.1335850051156531</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03300784873857331</v>
+        <v>0.02836476942187945</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2806921472.572323</v>
+        <v>2134049176.825242</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1544164306515843</v>
+        <v>0.1336010238885106</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02963879476350839</v>
+        <v>0.02854113794607282</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1650928022.776413</v>
+        <v>2071275795.347071</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1575274280398728</v>
+        <v>0.1596946065567916</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03798740513629709</v>
+        <v>0.03113260012254386</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5143741743.699114</v>
+        <v>5219746669.035607</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08113621931638181</v>
+        <v>0.07685032729111264</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03052130167220548</v>
+        <v>0.03002898583590218</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4628548804.351031</v>
+        <v>5051211173.016512</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1547110940268257</v>
+        <v>0.1707180547463841</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02838899271895998</v>
+        <v>0.03238387090247242</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4116052358.225342</v>
+        <v>5660150641.75283</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1725671739964216</v>
+        <v>0.1503631036527467</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03118304350876926</v>
+        <v>0.02136382717540748</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4110879679.359559</v>
+        <v>5446874851.365794</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1625413034547904</v>
+        <v>0.1153085028873595</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03257244631831029</v>
+        <v>0.0488369757299928</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3150186605.585741</v>
+        <v>3146831178.383035</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09372396151907697</v>
+        <v>0.07192582805256735</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04762918680322663</v>
+        <v>0.03551657642421387</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3989580555.78387</v>
+        <v>4935008750.315282</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1177881090169113</v>
+        <v>0.1185747531418467</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05176841142611831</v>
+        <v>0.05097207466874406</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1749198796.409671</v>
+        <v>1801497787.559222</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1619175274885476</v>
+        <v>0.1180677740985607</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05555580527813518</v>
+        <v>0.05576697811274892</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2503159660.719164</v>
+        <v>3074305488.986264</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1005662979871785</v>
+        <v>0.07537527354005739</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04122800088690349</v>
+        <v>0.03788107536309553</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5055117871.020258</v>
+        <v>4732716001.035555</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1523594245156135</v>
+        <v>0.1201195336661416</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03329149373829317</v>
+        <v>0.02988103629252173</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1752136371.873988</v>
+        <v>1735958439.202326</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09133565501928624</v>
+        <v>0.1019250028554873</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03382076217651932</v>
+        <v>0.03523214936746381</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2855400190.201045</v>
+        <v>2771308376.784495</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1096525895355063</v>
+        <v>0.08697963571287053</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04315307494280014</v>
+        <v>0.0317243398957584</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3102064689.743506</v>
+        <v>2786492502.13071</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1268594984799274</v>
+        <v>0.1703543604171999</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02595457945462269</v>
+        <v>0.029851650661018</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2253731434.832942</v>
+        <v>2378061845.884423</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1479042858479768</v>
+        <v>0.1643115178857046</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02980649087535125</v>
+        <v>0.03283619212588345</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3435665299.096471</v>
+        <v>3330379244.8116</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08220841329908814</v>
+        <v>0.1126332179250205</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02469300165324533</v>
+        <v>0.02173544594967692</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2046236871.841047</v>
+        <v>1400880363.33935</v>
       </c>
       <c r="F77" t="n">
-        <v>0.173837075173456</v>
+        <v>0.1638651047974388</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0316441427099738</v>
+        <v>0.02566443988751892</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3347724173.871864</v>
+        <v>3307281918.898967</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09057174222872176</v>
+        <v>0.1008293131568523</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05491454541570071</v>
+        <v>0.0412533316793519</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1870633669.349389</v>
+        <v>1513213531.624992</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1622341818259315</v>
+        <v>0.1583211475262755</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02860483366784692</v>
+        <v>0.03581220899658898</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5527433079.785992</v>
+        <v>4650990856.732207</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08996167710648879</v>
+        <v>0.08173618722158051</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03696868935468443</v>
+        <v>0.02592495703580014</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3886690350.889716</v>
+        <v>3782117395.67597</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1232992476887851</v>
+        <v>0.1095988703212105</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03286646923091625</v>
+        <v>0.02750199467084134</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5462174947.475787</v>
+        <v>3742666346.112206</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1353141715669844</v>
+        <v>0.2079276716171056</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02902794927313669</v>
+        <v>0.01815236818729891</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1785127717.338454</v>
+        <v>1500913636.895683</v>
       </c>
       <c r="F83" t="n">
-        <v>0.111348515432078</v>
+        <v>0.1208617896362596</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04395840373746521</v>
+        <v>0.02807757688261909</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2331163103.08418</v>
+        <v>2103661250.65119</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09488253253968293</v>
+        <v>0.1179765169989192</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04915425993694274</v>
+        <v>0.03606160050500635</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2972442622.999046</v>
+        <v>3305372780.194971</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1352442276340959</v>
+        <v>0.1823060086760747</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05558439519649746</v>
+        <v>0.04727054638537808</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1842806109.42722</v>
+        <v>2706940107.617927</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1348943896482578</v>
+        <v>0.1637779465892057</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01775395238120261</v>
+        <v>0.0221065072835156</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1387439446.030338</v>
+        <v>1467458433.864297</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1153168584874492</v>
+        <v>0.1624724779279089</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03519421403194718</v>
+        <v>0.03351539682842573</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3219119249.516555</v>
+        <v>2723967493.058141</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1388293157144264</v>
+        <v>0.1184687779238258</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02533555508059075</v>
+        <v>0.03302903029287241</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,16 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3073419119.687393</v>
+        <v>2717571885.426915</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1007541008926114</v>
+        <v>0.142354480904149</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03590891044180362</v>
+        <v>0.03045772521640756</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2093665463.163913</v>
+        <v>1627902577.992847</v>
       </c>
       <c r="F90" t="n">
-        <v>0.128432955163168</v>
+        <v>0.09757394126676809</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05230630643876916</v>
+        <v>0.03456372670412456</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1912507523.251845</v>
+        <v>1423062477.64665</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1522732688842568</v>
+        <v>0.1426081961892745</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03917146517851797</v>
+        <v>0.03880943589285994</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1856104558.552467</v>
+        <v>2559894985.97559</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1012588643427549</v>
+        <v>0.09512651107698128</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03150095064830627</v>
+        <v>0.0304677368028236</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4480180485.174764</v>
+        <v>4870463239.946195</v>
       </c>
       <c r="F93" t="n">
-        <v>0.127194193419255</v>
+        <v>0.1335624167991793</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03438675979576118</v>
+        <v>0.05244659171204536</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1908044560.904001</v>
+        <v>2191296329.726623</v>
       </c>
       <c r="F94" t="n">
-        <v>0.155415848795878</v>
+        <v>0.1066299831179966</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04137569264644291</v>
+        <v>0.0360056414101718</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2890597967.955445</v>
+        <v>3165567455.750908</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09272974288858278</v>
+        <v>0.1364853278074222</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04440377710143194</v>
+        <v>0.0350994455897187</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2403952570.680039</v>
+        <v>1519913882.043783</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0854800028417167</v>
+        <v>0.1031633922270808</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04709198100894511</v>
+        <v>0.03759249408190331</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3894140822.456603</v>
+        <v>5269906988.3843</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1568915996206536</v>
+        <v>0.1196793884597954</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02919951174862401</v>
+        <v>0.02400019811882508</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3689141091.142413</v>
+        <v>3907945078.501093</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1037187395606683</v>
+        <v>0.0807619564801543</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02458399583549323</v>
+        <v>0.02320359529073223</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2340491489.151487</v>
+        <v>2208217410.277454</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1354039196456651</v>
+        <v>0.116946084841127</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02753446291459255</v>
+        <v>0.02685504822151899</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4025860977.644039</v>
+        <v>4533409659.328055</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1345937109193196</v>
+        <v>0.1278340618786124</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02146391029220089</v>
+        <v>0.02178955894322376</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3554444459.55093</v>
+        <v>2468526522.358044</v>
       </c>
       <c r="F101" t="n">
-        <v>0.168489520182046</v>
+        <v>0.1905381675949683</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05302094772342827</v>
+        <v>0.05369854092311578</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_226.xlsx
+++ b/output/fit_clients/fit_round_226.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1948702101.495351</v>
+        <v>1679247460.094382</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1145307843481071</v>
+        <v>0.07528756732892264</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03170440999622827</v>
+        <v>0.03822938922981466</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2614922892.56433</v>
+        <v>2384091809.672029</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1306572641805251</v>
+        <v>0.1287338519034296</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03441238592948521</v>
+        <v>0.03249609811847945</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4900792728.638383</v>
+        <v>3416696085.780483</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1613802795355135</v>
+        <v>0.1079385606099683</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02781873239741998</v>
+        <v>0.02519141307248276</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>123</v>
+      </c>
+      <c r="J4" t="n">
+        <v>224</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3936780233.921851</v>
+        <v>3233210996.526024</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09174389114622485</v>
+        <v>0.1107990449037124</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0473664390095743</v>
+        <v>0.0490306736349199</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>94</v>
+      </c>
+      <c r="J5" t="n">
+        <v>225</v>
+      </c>
+      <c r="K5" t="n">
+        <v>78.49443474285671</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1751623022.804467</v>
+        <v>2128939237.939003</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09564988288977264</v>
+        <v>0.1037736774930072</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04125191537494585</v>
+        <v>0.04177276857824772</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1978284998.535368</v>
+        <v>2332728619.424591</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07550812870444835</v>
+        <v>0.08086545775510139</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04001426714090076</v>
+        <v>0.04839058471616076</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3814834632.507395</v>
+        <v>3636095070.756239</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1450122330422068</v>
+        <v>0.1846276269699878</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02694623449536388</v>
+        <v>0.02719330495250163</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>63</v>
+      </c>
+      <c r="J8" t="n">
+        <v>226</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +748,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1575432796.047128</v>
+        <v>1771039885.491302</v>
       </c>
       <c r="F9" t="n">
-        <v>0.156074243838137</v>
+        <v>0.1873800425343424</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03428916560145241</v>
+        <v>0.03506018408926736</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4358727923.996408</v>
+        <v>4945294717.814542</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1373486580682034</v>
+        <v>0.1352179406150057</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03865684942066878</v>
+        <v>0.04021180847471831</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>205</v>
+      </c>
+      <c r="J10" t="n">
+        <v>226</v>
+      </c>
+      <c r="K10" t="n">
+        <v>119.4296578679898</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3983188236.412847</v>
+        <v>3200451185.047534</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1307580478863396</v>
+        <v>0.185048575173657</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04922456336439779</v>
+        <v>0.0474390576866178</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>94</v>
+      </c>
+      <c r="J11" t="n">
+        <v>223</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3044447998.781556</v>
+        <v>2628165153.390777</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1694843229479749</v>
+        <v>0.1737688327687684</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05146922913900488</v>
+        <v>0.04578622021420883</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3615952781.009377</v>
+        <v>5049050962.281328</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09341263425379893</v>
+        <v>0.07207361384095817</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0269327365871712</v>
+        <v>0.02490465863519817</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>114</v>
+      </c>
+      <c r="J13" t="n">
+        <v>226</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3547445447.306395</v>
+        <v>3200799245.871301</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1691650769388323</v>
+        <v>0.1485344483823106</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02849062075501217</v>
+        <v>0.03220515227996418</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>43</v>
+      </c>
+      <c r="J14" t="n">
+        <v>223</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1137869302.736772</v>
+        <v>1368781041.996444</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07786240382761352</v>
+        <v>0.09831887073447551</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04230170998838875</v>
+        <v>0.03081522596297758</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1891621581.881105</v>
+        <v>2625850911.498374</v>
       </c>
       <c r="F16" t="n">
-        <v>0.111918556332962</v>
+        <v>0.07753468600004688</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04283292265307514</v>
+        <v>0.03836973840521542</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1030,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4943832180.257679</v>
+        <v>5074324206.837722</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1184112674493109</v>
+        <v>0.1335935825721936</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05050544676029968</v>
+        <v>0.05192000415951773</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>109</v>
+      </c>
+      <c r="J17" t="n">
+        <v>225</v>
+      </c>
+      <c r="K17" t="n">
+        <v>102.5853002835682</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2504171867.3816</v>
+        <v>3225199524.95463</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1523144099606446</v>
+        <v>0.1234932987268096</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02622671364902</v>
+        <v>0.02199246555093056</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>221</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1050700202.751524</v>
+        <v>1058613753.630988</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1825323422862002</v>
+        <v>0.1243594336376611</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02239799849935575</v>
+        <v>0.02211926461631519</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1880044635.585245</v>
+        <v>1913457807.653593</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1604301393730275</v>
+        <v>0.1470147050650172</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02015596592599081</v>
+        <v>0.02979012544208946</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2472428609.803415</v>
+        <v>1909032061.365602</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1021685367367321</v>
+        <v>0.072917147431312</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04118268886604507</v>
+        <v>0.0385946161649818</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3117914033.698759</v>
+        <v>3205438088.50633</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1153617549139027</v>
+        <v>0.10301513385668</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04346700390582288</v>
+        <v>0.04383429751484657</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>57</v>
+      </c>
+      <c r="J22" t="n">
+        <v>222</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1232145850.238219</v>
+        <v>1261570719.501424</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1646776385955127</v>
+        <v>0.1344075580834945</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04015386936674579</v>
+        <v>0.05429647343096506</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1277,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3435961090.415608</v>
+        <v>3086032528.28159</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1121525366177887</v>
+        <v>0.1474804859226822</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02435083225683829</v>
+        <v>0.03124938606935356</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70</v>
+      </c>
+      <c r="J24" t="n">
+        <v>220</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1226874433.294091</v>
+        <v>1192957566.738294</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09676757841494392</v>
+        <v>0.1139691578374026</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02333983923913421</v>
+        <v>0.02662673770926978</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1341,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1067685013.852005</v>
+        <v>1352230510.404405</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08807135870118835</v>
+        <v>0.0878210539977678</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03538204763049397</v>
+        <v>0.03013169966966052</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1376,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3313489732.627483</v>
+        <v>4282093169.993364</v>
       </c>
       <c r="F27" t="n">
-        <v>0.127608962483315</v>
+        <v>0.1580210376880762</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02137916368341162</v>
+        <v>0.01818125391298372</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>90</v>
+      </c>
+      <c r="J27" t="n">
+        <v>226</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2807288914.763071</v>
+        <v>3701587325.173216</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1105204957511156</v>
+        <v>0.143715845108624</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03931693238153874</v>
+        <v>0.03796719451985305</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>46</v>
+      </c>
+      <c r="J28" t="n">
+        <v>226</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5618939660.415246</v>
+        <v>5944330411.724852</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09790370374489459</v>
+        <v>0.1196397232556341</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04182365543522535</v>
+        <v>0.04614863500768032</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>215</v>
+      </c>
+      <c r="J29" t="n">
+        <v>226</v>
+      </c>
+      <c r="K29" t="n">
+        <v>122.3944353718684</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1599122835.927229</v>
+        <v>1479911068.074321</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08526540115782684</v>
+        <v>0.1211817183585449</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03151425420778566</v>
+        <v>0.03772910399140735</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1319741660.369417</v>
+        <v>1443149649.719364</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07261876398771588</v>
+        <v>0.08652240087105437</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03276057292859735</v>
+        <v>0.05009523725874109</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1306599689.097945</v>
+        <v>1299439585.429044</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07936747724211531</v>
+        <v>0.103354705239085</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02560949580291755</v>
+        <v>0.03626682106719083</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2419928791.095171</v>
+        <v>2095970451.865668</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1316094560155726</v>
+        <v>0.1989242451382593</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05644110812387653</v>
+        <v>0.0400338190249255</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1094312899.355374</v>
+        <v>1501135993.107827</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09088139150951137</v>
+        <v>0.08524328731311598</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02522347557596243</v>
+        <v>0.01765214607841359</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1349617387.547624</v>
+        <v>1267930011.13894</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09846355436411436</v>
+        <v>0.1049921771291349</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03578034720337966</v>
+        <v>0.03163141829075328</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1693,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2931043441.174716</v>
+        <v>2208824572.496597</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1155614946867582</v>
+        <v>0.1615715563837817</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02649057611489188</v>
+        <v>0.02625173784176305</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1728,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2915572801.548169</v>
+        <v>1870459223.534082</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07954329491666588</v>
+        <v>0.1095476364248992</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04184198906263539</v>
+        <v>0.03926320170855452</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1763,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1597559563.40704</v>
+        <v>1650037478.917397</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1145614714117438</v>
+        <v>0.07674326849198548</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03471925475944138</v>
+        <v>0.02503958724018173</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2139597770.190024</v>
+        <v>1984636068.012562</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1581461287550877</v>
+        <v>0.1937172492478657</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02141149995625491</v>
+        <v>0.02411488669694025</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1770747075.887563</v>
+        <v>1399538285.13845</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1396339959060475</v>
+        <v>0.1094406116260187</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06008640808570471</v>
+        <v>0.03778402613197455</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1868,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1880777469.882924</v>
+        <v>2873267123.385913</v>
       </c>
       <c r="F41" t="n">
-        <v>0.146520771310292</v>
+        <v>0.1143676142418027</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02969997189097122</v>
+        <v>0.03053482101435759</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1903,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3518521163.505578</v>
+        <v>4127595369.584512</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1156477978947386</v>
+        <v>0.1212739520193885</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03108346730483183</v>
+        <v>0.03888162288421908</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>91</v>
+      </c>
+      <c r="J42" t="n">
+        <v>226</v>
+      </c>
+      <c r="K42" t="n">
+        <v>116.6198341817025</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2971605802.701227</v>
+        <v>2549216541.323268</v>
       </c>
       <c r="F43" t="n">
-        <v>0.187645684931203</v>
+        <v>0.1946986967359988</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02568516545479108</v>
+        <v>0.01919573877302999</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1922547088.697585</v>
+        <v>1536066470.812889</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07042245732263454</v>
+        <v>0.07038884762517772</v>
       </c>
       <c r="G44" t="n">
-        <v>0.029784285862128</v>
+        <v>0.03008931267693998</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2478336260.425661</v>
+        <v>2211209917.321818</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1845610715863038</v>
+        <v>0.1737187574652378</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04402127316782058</v>
+        <v>0.05552125889458608</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3960375927.389919</v>
+        <v>4328688924.237125</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1285638895421316</v>
+        <v>0.1706448569893373</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04859029857161058</v>
+        <v>0.05066376540818523</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>130</v>
+      </c>
+      <c r="J46" t="n">
+        <v>226</v>
+      </c>
+      <c r="K46" t="n">
+        <v>113.0588284990031</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3330901317.167506</v>
+        <v>5026230753.524748</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1602937644734139</v>
+        <v>0.2000447027944367</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04221973526565251</v>
+        <v>0.04895537578008733</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>101</v>
+      </c>
+      <c r="J47" t="n">
+        <v>226</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4343654116.247374</v>
+        <v>3100185456.568109</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07448799216598259</v>
+        <v>0.0914494008978228</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02985710673190335</v>
+        <v>0.03804599900439533</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>110</v>
+      </c>
+      <c r="J48" t="n">
+        <v>224</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2158,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1463183153.822253</v>
+        <v>1558311746.89813</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1828381813229777</v>
+        <v>0.1220934836733121</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04255219921710036</v>
+        <v>0.03474245125819617</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2193,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2916821650.782361</v>
+        <v>2586000779.944872</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1747458727726849</v>
+        <v>0.1686738521903665</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04886753113604166</v>
+        <v>0.0382859225129949</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>74</v>
+      </c>
+      <c r="J50" t="n">
+        <v>225</v>
+      </c>
+      <c r="K50" t="n">
+        <v>44.27489638315708</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1122663254.329253</v>
+        <v>1137158861.598962</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1924398032379206</v>
+        <v>0.1248363318754924</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03973612724849241</v>
+        <v>0.05087543129656954</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3610401540.113482</v>
+        <v>4946626656.03046</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08619891898559491</v>
+        <v>0.1116463254093173</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04026302403437743</v>
+        <v>0.05027744817246106</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>150</v>
+      </c>
+      <c r="J52" t="n">
+        <v>225</v>
+      </c>
+      <c r="K52" t="n">
+        <v>108.9495473622327</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2353992091.746948</v>
+        <v>2443542292.469633</v>
       </c>
       <c r="F53" t="n">
-        <v>0.186117727036564</v>
+        <v>0.1296118211825759</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02977570945310085</v>
+        <v>0.02947217720320912</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>30</v>
+      </c>
+      <c r="J53" t="n">
+        <v>221</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3755613381.892688</v>
+        <v>4417841880.844407</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1147271738113546</v>
+        <v>0.1481691412932842</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05104710716370781</v>
+        <v>0.04705453468614058</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>120</v>
+      </c>
+      <c r="J54" t="n">
+        <v>226</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4175208492.84907</v>
+        <v>3695800906.471317</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1927618193725842</v>
+        <v>0.1694165615094099</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0239751092659517</v>
+        <v>0.02938846563351432</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>101</v>
+      </c>
+      <c r="J55" t="n">
+        <v>226</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1222966630.293648</v>
+        <v>1608110914.708261</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1448393650883639</v>
+        <v>0.1577226992834183</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04421993850860172</v>
+        <v>0.05106897098209778</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2436,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3569357267.76845</v>
+        <v>3960998247.943558</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1137465154095894</v>
+        <v>0.1657062841817031</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02662842394257726</v>
+        <v>0.02339646399969408</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>88</v>
+      </c>
+      <c r="J57" t="n">
+        <v>226</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2477,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1233722560.254572</v>
+        <v>1539766609.194997</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2030117704984895</v>
+        <v>0.1800882837489877</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03225572253823724</v>
+        <v>0.02695333986639856</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2506,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4834112840.201051</v>
+        <v>4814868426.478167</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09070868470767054</v>
+        <v>0.09874597930955419</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04090176354631622</v>
+        <v>0.03855922045862083</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>109</v>
+      </c>
+      <c r="J59" t="n">
+        <v>226</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2541,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3490233194.659396</v>
+        <v>3121460506.701183</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1335850051156531</v>
+        <v>0.1365454353522384</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02836476942187945</v>
+        <v>0.02983677894009776</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>32</v>
+      </c>
+      <c r="J60" t="n">
+        <v>219</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2576,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2134049176.825242</v>
+        <v>3173858887.176845</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1336010238885106</v>
+        <v>0.1284966188248458</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02854113794607282</v>
+        <v>0.02209923586648849</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2611,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2071275795.347071</v>
+        <v>1909299349.580069</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1596946065567916</v>
+        <v>0.1857502042146163</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03113260012254386</v>
+        <v>0.04774697453225624</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2646,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5219746669.035607</v>
+        <v>4582275614.090927</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07685032729111264</v>
+        <v>0.09732197860816373</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03002898583590218</v>
+        <v>0.04575525252832943</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>110</v>
+      </c>
+      <c r="J63" t="n">
+        <v>225</v>
+      </c>
+      <c r="K63" t="n">
+        <v>105.3866261083595</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2683,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5051211173.016512</v>
+        <v>5468841300.838273</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1707180547463841</v>
+        <v>0.1727671949447705</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03238387090247242</v>
+        <v>0.02300393830509129</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>111</v>
+      </c>
+      <c r="J64" t="n">
+        <v>226</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2718,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5660150641.75283</v>
+        <v>4147798312.121631</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1503631036527467</v>
+        <v>0.1605914233538803</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02136382717540748</v>
+        <v>0.02744130715173714</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>179</v>
+      </c>
+      <c r="J65" t="n">
+        <v>226</v>
+      </c>
+      <c r="K65" t="n">
+        <v>114.2991508606055</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2761,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5446874851.365794</v>
+        <v>3918633790.01525</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1153085028873595</v>
+        <v>0.1210633872533994</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0488369757299928</v>
+        <v>0.04005874318674823</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>111</v>
+      </c>
+      <c r="J66" t="n">
+        <v>226</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2790,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3146831178.383035</v>
+        <v>3452207592.908553</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07192582805256735</v>
+        <v>0.08316181460497735</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03551657642421387</v>
+        <v>0.04109970361764354</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>226</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2825,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4935008750.315282</v>
+        <v>5771309594.603017</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1185747531418467</v>
+        <v>0.1543681073242425</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05097207466874406</v>
+        <v>0.04637425342954967</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>114</v>
+      </c>
+      <c r="J68" t="n">
+        <v>225</v>
+      </c>
+      <c r="K68" t="n">
+        <v>109.5231261796989</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2862,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1801497787.559222</v>
+        <v>1903539074.747696</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1180677740985607</v>
+        <v>0.130855764756594</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05576697811274892</v>
+        <v>0.03848194934017716</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2897,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3074305488.986264</v>
+        <v>2939898107.457539</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07537527354005739</v>
+        <v>0.07485337829935046</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03788107536309553</v>
+        <v>0.04286139346676941</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>34</v>
+      </c>
+      <c r="J70" t="n">
+        <v>225</v>
+      </c>
+      <c r="K70" t="n">
+        <v>51.93877603513921</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2934,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4732716001.035555</v>
+        <v>4902510165.658906</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1201195336661416</v>
+        <v>0.1711250174550679</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02988103629252173</v>
+        <v>0.02624428530047021</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>173</v>
+      </c>
+      <c r="J71" t="n">
+        <v>225</v>
+      </c>
+      <c r="K71" t="n">
+        <v>112.137201682699</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2971,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1735958439.202326</v>
+        <v>1438101104.309117</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1019250028554873</v>
+        <v>0.0719169128780807</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03523214936746381</v>
+        <v>0.0374884170030006</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3012,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2771308376.784495</v>
+        <v>2756152133.180011</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08697963571287053</v>
+        <v>0.1076545954271905</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0317243398957584</v>
+        <v>0.04850679040742691</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3041,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2786492502.13071</v>
+        <v>3185254778.661522</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1703543604171999</v>
+        <v>0.1846943849178651</v>
       </c>
       <c r="G74" t="n">
-        <v>0.029851650661018</v>
+        <v>0.02142452780795859</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>65</v>
+      </c>
+      <c r="J74" t="n">
+        <v>225</v>
+      </c>
+      <c r="K74" t="n">
+        <v>70.49299720806837</v>
       </c>
     </row>
     <row r="75">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2378061845.884423</v>
+        <v>1703307070.470837</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1643115178857046</v>
+        <v>0.1544131671200165</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03283619212588345</v>
+        <v>0.03341992698999175</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3330379244.8116</v>
+        <v>4436871337.318852</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1126332179250205</v>
+        <v>0.1052990816168685</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02173544594967692</v>
+        <v>0.02193693782687591</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>104</v>
+      </c>
+      <c r="J76" t="n">
+        <v>226</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1400880363.33935</v>
+        <v>1473975943.898487</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1638651047974388</v>
+        <v>0.1570132715166396</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02566443988751892</v>
+        <v>0.02582672125743959</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3307281918.898967</v>
+        <v>3472525551.762732</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1008293131568523</v>
+        <v>0.09890021976220469</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0412533316793519</v>
+        <v>0.04193693097214063</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>113</v>
+      </c>
+      <c r="J78" t="n">
+        <v>226</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1513213531.624992</v>
+        <v>1918187019.924626</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1583211475262755</v>
+        <v>0.1757295071645358</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03581220899658898</v>
+        <v>0.03750914297888113</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4650990856.732207</v>
+        <v>3584999852.062307</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08173618722158051</v>
+        <v>0.1016494496670172</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02592495703580014</v>
+        <v>0.02490196234792098</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>110</v>
+      </c>
+      <c r="J80" t="n">
+        <v>225</v>
+      </c>
+      <c r="K80" t="n">
+        <v>62.19197759416814</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3296,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3782117395.67597</v>
+        <v>4795957369.614488</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1095988703212105</v>
+        <v>0.1038146802320613</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02750199467084134</v>
+        <v>0.02175573722505499</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>104</v>
+      </c>
+      <c r="J81" t="n">
+        <v>225</v>
+      </c>
+      <c r="K81" t="n">
+        <v>96.11419745143651</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3742666346.112206</v>
+        <v>4048194962.303713</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2079276716171056</v>
+        <v>0.2034730784128071</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01815236818729891</v>
+        <v>0.02189817608085358</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>169</v>
+      </c>
+      <c r="J82" t="n">
+        <v>225</v>
+      </c>
+      <c r="K82" t="n">
+        <v>111.0527944835562</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1500913636.895683</v>
+        <v>1517290632.155699</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1208617896362596</v>
+        <v>0.1069504747243722</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02807757688261909</v>
+        <v>0.03182242094382506</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2103661250.65119</v>
+        <v>1613342384.572467</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1179765169989192</v>
+        <v>0.07923619681963943</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03606160050500635</v>
+        <v>0.04157930637154078</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3305372780.194971</v>
+        <v>2853682884.093814</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1823060086760747</v>
+        <v>0.1392262992174592</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04727054638537808</v>
+        <v>0.05545484821869041</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>31</v>
+      </c>
+      <c r="J85" t="n">
+        <v>225</v>
+      </c>
+      <c r="K85" t="n">
+        <v>60.28834926712573</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2706940107.617927</v>
+        <v>1955168582.826429</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1637779465892057</v>
+        <v>0.1700819624591415</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0221065072835156</v>
+        <v>0.02241501962171698</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1467458433.864297</v>
+        <v>1390950381.052761</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1624724779279089</v>
+        <v>0.1449743742940688</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03351539682842573</v>
+        <v>0.03997126541624163</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2723967493.058141</v>
+        <v>2798702856.700836</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1184687779238258</v>
+        <v>0.1711069983587608</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03302903029287241</v>
+        <v>0.03121181888548455</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>31</v>
+      </c>
+      <c r="J88" t="n">
+        <v>214</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,22 +3576,31 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2717571885.426915</v>
+        <v>2711874999.651044</v>
       </c>
       <c r="F89" t="n">
-        <v>0.142354480904149</v>
+        <v>0.1058008123709114</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03045772521640756</v>
+        <v>0.02827969955852975</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="n">
+        <v>53.41135763993576</v>
       </c>
     </row>
     <row r="90">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1627902577.992847</v>
+        <v>1801976347.329806</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09757394126676809</v>
+        <v>0.1012241171218922</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03456372670412456</v>
+        <v>0.04716164208423054</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1423062477.64665</v>
+        <v>1810374216.973865</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1426081961892745</v>
+        <v>0.1847186014711257</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03880943589285994</v>
+        <v>0.06088561571266338</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2559894985.97559</v>
+        <v>2162419344.420254</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09512651107698128</v>
+        <v>0.07897740633464491</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0304677368028236</v>
+        <v>0.02988305008266612</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4870463239.946195</v>
+        <v>3031189073.570138</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1335624167991793</v>
+        <v>0.1393757659311578</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05244659171204536</v>
+        <v>0.05413472742925557</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>101</v>
+      </c>
+      <c r="J93" t="n">
+        <v>224</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2191296329.726623</v>
+        <v>2485923608.000546</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1066299831179966</v>
+        <v>0.1458199650201668</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0360056414101718</v>
+        <v>0.03712523662519204</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3165567455.750908</v>
+        <v>3051022977.58927</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1364853278074222</v>
+        <v>0.1252422018330333</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0350994455897187</v>
+        <v>0.05261834974095188</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1519913882.043783</v>
+        <v>1574679702.68462</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1031633922270808</v>
+        <v>0.1228855892504576</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03759249408190331</v>
+        <v>0.04311981619468377</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5269906988.3843</v>
+        <v>4916425012.200621</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1196793884597954</v>
+        <v>0.1762912135630333</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02400019811882508</v>
+        <v>0.02185758536963365</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>109</v>
+      </c>
+      <c r="J97" t="n">
+        <v>226</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3907945078.501093</v>
+        <v>3256936024.895106</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0807619564801543</v>
+        <v>0.08175322129682744</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02320359529073223</v>
+        <v>0.02942787717327647</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>54</v>
+      </c>
+      <c r="J98" t="n">
+        <v>224</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2208217410.277454</v>
+        <v>3238082927.868897</v>
       </c>
       <c r="F99" t="n">
-        <v>0.116946084841127</v>
+        <v>0.1243859618484548</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02685504822151899</v>
+        <v>0.02510836177711749</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4533409659.328055</v>
+        <v>3627806559.252182</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1278340618786124</v>
+        <v>0.1534209049726319</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02178955894322376</v>
+        <v>0.02788087290598845</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>95</v>
+      </c>
+      <c r="J100" t="n">
+        <v>225</v>
+      </c>
+      <c r="K100" t="n">
+        <v>83.09921058471021</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2468526522.358044</v>
+        <v>2808980087.082255</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1905381675949683</v>
+        <v>0.1383862962112864</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05369854092311578</v>
+        <v>0.03599066626158466</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
